--- a/config/20231024会计分录&科目标签.xlsx
+++ b/config/20231024会计分录&科目标签.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="299">
   <si>
     <t>当前账户
 （公私类型）</t>
@@ -134,6 +134,9 @@
     <t>增加</t>
   </si>
   <si>
+    <t>Z07账户余额</t>
+  </si>
+  <si>
     <t>收入</t>
   </si>
   <si>
@@ -143,6 +146,9 @@
     <t>F0101应付</t>
   </si>
   <si>
+    <t>Z01应收资产</t>
+  </si>
+  <si>
     <t>退还押金</t>
   </si>
   <si>
@@ -152,16 +158,31 @@
     <t>减小</t>
   </si>
   <si>
+    <t>Z07债权类资产</t>
+  </si>
+  <si>
+    <t>Z0701债权</t>
+  </si>
+  <si>
     <t>收到对方退还的押金、保证金；</t>
   </si>
   <si>
+    <t>Z02理财类资产</t>
+  </si>
+  <si>
+    <t>Z0201理财资产</t>
+  </si>
+  <si>
     <t>借款、贷款、放款、贷款发放</t>
   </si>
   <si>
     <t>对外出借的贷款本金；</t>
   </si>
   <si>
-    <t>Z0701债权</t>
+    <t>Z03处置类资产</t>
+  </si>
+  <si>
+    <t>Z0301固定资产</t>
   </si>
   <si>
     <t>由贷款机构或个人发放的贷款本金，贷款种类包括抵押贷款、信用贷款、民间借款等；</t>
@@ -173,15 +194,33 @@
     <t>F0301贷款</t>
   </si>
   <si>
+    <t>Z04股权类资产</t>
+  </si>
+  <si>
+    <t>Z0401股权</t>
+  </si>
+  <si>
     <t>还贷款、还款、归还借款</t>
   </si>
   <si>
     <t>归还的贷款本金；</t>
   </si>
   <si>
+    <t>Z05固定资产</t>
+  </si>
+  <si>
+    <t>Z0501生产资料</t>
+  </si>
+  <si>
     <t>对方归还的借款本金；</t>
   </si>
   <si>
+    <t>Z06无形资产</t>
+  </si>
+  <si>
+    <t>Z0601知识产权</t>
+  </si>
+  <si>
     <t>证券、基金、余额宝、零钱通</t>
   </si>
   <si>
@@ -191,7 +230,7 @@
     <t>基金、证券、银行、人寿保险类机构</t>
   </si>
   <si>
-    <t>Z0201理财资产</t>
+    <t>F01应付负债</t>
   </si>
   <si>
     <t>证券、基金、股票等理财产品的本金返回（此类理财产品产生的收益返还，不适用于此类科目，应属于非经营收入科目）</t>
@@ -200,6 +239,12 @@
     <t>基金、证券、银行、人寿保险类机构；</t>
   </si>
   <si>
+    <t>F02往来负债</t>
+  </si>
+  <si>
+    <t>F0201往来负债</t>
+  </si>
+  <si>
     <t>购房款</t>
   </si>
   <si>
@@ -209,25 +254,43 @@
     <t>房产开发公司、汽车公司</t>
   </si>
   <si>
-    <t>Z03处置类资产</t>
+    <t>Z0301处置类资产</t>
+  </si>
+  <si>
+    <t>F03借款类负债</t>
+  </si>
+  <si>
+    <t>F0301借款</t>
   </si>
   <si>
     <t>卖掉住房、乘用车的款项收入，</t>
   </si>
   <si>
+    <t>F04信用卡</t>
+  </si>
+  <si>
+    <t>F0401信用卡</t>
+  </si>
+  <si>
     <t>注册资本金</t>
   </si>
   <si>
     <t>支付的注册资本金；</t>
   </si>
   <si>
-    <t>Z04股权类资产</t>
+    <t>P01经营支出</t>
+  </si>
+  <si>
+    <t>P0101经营支出</t>
   </si>
   <si>
     <t>退回的注册资本金；</t>
   </si>
   <si>
-    <t>F01应付负债</t>
+    <t>P02信贷支出</t>
+  </si>
+  <si>
+    <t>P0201信贷支出</t>
   </si>
   <si>
     <t>退还注册资本金</t>
@@ -236,16 +299,32 @@
     <t>退回注册资本金</t>
   </si>
   <si>
+    <t>P03消费支出</t>
+  </si>
+  <si>
+    <t>P0301 -
+ P0324 《居民消费支出分类表》24个中类分类；</t>
+  </si>
+  <si>
     <t>收到别人退回的注册资本金</t>
   </si>
   <si>
+    <t>S01经营收入</t>
+  </si>
+  <si>
+    <t>S0101经营收入</t>
+  </si>
+  <si>
     <t>厂房款</t>
   </si>
   <si>
     <t>购买厂房、机器设备的费用；</t>
   </si>
   <si>
-    <t>Z05固定资产</t>
+    <t>S02营业外收入</t>
+  </si>
+  <si>
+    <t>S0201营业外收入</t>
   </si>
   <si>
     <t>变卖厂房、机器设备的所得，</t>
@@ -257,9 +336,6 @@
     <t>购买专利、商标、软著、发明等知识产权的费用，</t>
   </si>
   <si>
-    <t>Z06无形资产</t>
-  </si>
-  <si>
     <t>卖掉专利、商标、软著、发明等知识产权的所得。</t>
   </si>
   <si>
@@ -269,9 +345,6 @@
     <t>无法确定资金用途的打出款项，</t>
   </si>
   <si>
-    <t>F02往来负债</t>
-  </si>
-  <si>
     <t>无法确定资金用途的所得；</t>
   </si>
   <si>
@@ -281,24 +354,15 @@
     <t>偿还信用卡账单</t>
   </si>
   <si>
-    <t>F04信用卡</t>
-  </si>
-  <si>
     <t>货物款、采购付款、佣金、退款</t>
   </si>
   <si>
     <t>跟生意、贸易、企业经营相关的支付费用，比如货款的支付等；</t>
   </si>
   <si>
-    <t>P01经营支出</t>
-  </si>
-  <si>
     <t>由工作或者经营带来的持续并且稳定数额的所得费用，比如工资收入等；</t>
   </si>
   <si>
-    <t>S01经营收入</t>
-  </si>
-  <si>
     <t>利息、结息</t>
   </si>
   <si>
@@ -308,12 +372,6 @@
     <t>银行、小贷、融资租赁等金融机服务构；</t>
   </si>
   <si>
-    <t>P02信贷支出</t>
-  </si>
-  <si>
-    <t>S02营业外收入</t>
-  </si>
-  <si>
     <t>庆祝红包</t>
   </si>
   <si>
@@ -326,21 +384,12 @@
     <t>消费类商品和服务的商家机构</t>
   </si>
   <si>
-    <t>P03消费支出</t>
-  </si>
-  <si>
     <t>对公</t>
   </si>
   <si>
     <t>支付押金、保证金类性质的费用；</t>
   </si>
   <si>
-    <t>Z07账户余额</t>
-  </si>
-  <si>
-    <t>Z01应收资产</t>
-  </si>
-  <si>
     <t>收到的押金、保证金类费用；</t>
   </si>
   <si>
@@ -356,15 +405,9 @@
     <t>对外借出的款项；</t>
   </si>
   <si>
-    <t>Z07债权类资产</t>
-  </si>
-  <si>
     <t>收到的贷款本金，一般由金融机构发放；</t>
   </si>
   <si>
-    <t>F03借款类负债</t>
-  </si>
-  <si>
     <t>归还贷款本金；</t>
   </si>
   <si>
@@ -372,9 +415,6 @@
   </si>
   <si>
     <t>购买基金、股票、证券、银行理财等产品的费用。</t>
-  </si>
-  <si>
-    <t>Z02理财类资产</t>
   </si>
   <si>
     <t>证券、基金、股票、银行理财产品的本金返回（此类产品产生的收益返还不属于此类科目，属于非经营收入科目）</t>
@@ -1822,7 +1862,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2027,6 +2067,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -2382,10 +2425,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L5"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J1" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.75" customHeight="1"/>
@@ -2442,7 +2485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="33.75" customHeight="1" spans="1:12">
+    <row r="2" ht="33.75" customHeight="1" spans="1:15">
       <c r="A2" s="51" t="s">
         <v>11</v>
       </c>
@@ -2477,8 +2520,14 @@
       <c r="L2" s="54" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" ht="31.5" customHeight="1" spans="1:12">
+      <c r="N2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="31.5" customHeight="1" spans="1:15">
       <c r="A3" s="51" t="s">
         <v>11</v>
       </c>
@@ -2486,13 +2535,13 @@
         <v>12</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="71"/>
       <c r="G3" s="27" t="s">
@@ -2505,7 +2554,7 @@
         <v>18</v>
       </c>
       <c r="J3" s="70" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="42" t="s">
         <v>20</v>
@@ -2513,8 +2562,14 @@
       <c r="L3" s="54" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" ht="31.5" customHeight="1" spans="1:12">
+      <c r="N3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="31.5" customHeight="1" spans="1:15">
       <c r="A4" s="51" t="s">
         <v>11</v>
       </c>
@@ -2525,10 +2580,10 @@
         <v>13</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" s="71"/>
       <c r="G4" s="27" t="s">
@@ -2541,16 +2596,22 @@
         <v>18</v>
       </c>
       <c r="J4" s="70" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" s="42" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L4" s="54" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" ht="33.75" customHeight="1" spans="1:12">
+      <c r="N4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" ht="33.75" customHeight="1" spans="1:15">
       <c r="A5" s="51" t="s">
         <v>11</v>
       </c>
@@ -2558,13 +2619,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F5" s="71"/>
       <c r="G5" s="27" t="s">
@@ -2580,13 +2641,19 @@
         <v>19</v>
       </c>
       <c r="K5" s="42" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L5" s="54" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" ht="33.75" customHeight="1" spans="1:12">
+      <c r="N5" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" ht="33.75" customHeight="1" spans="1:15">
       <c r="A6" s="51" t="s">
         <v>11</v>
       </c>
@@ -2597,10 +2664,10 @@
         <v>13</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F6" s="72"/>
       <c r="G6" s="27" t="s">
@@ -2621,8 +2688,14 @@
       <c r="L6" s="54" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" ht="49.5" customHeight="1" spans="1:12">
+      <c r="N6" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" ht="49.5" customHeight="1" spans="1:15">
       <c r="A7" s="51" t="s">
         <v>11</v>
       </c>
@@ -2630,16 +2703,16 @@
         <v>12</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>16</v>
@@ -2651,7 +2724,7 @@
         <v>18</v>
       </c>
       <c r="J7" s="70" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K7" s="42" t="s">
         <v>20</v>
@@ -2659,8 +2732,14 @@
       <c r="L7" s="54" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" ht="31.5" customHeight="1" spans="1:12">
+      <c r="N7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" ht="31.5" customHeight="1" spans="1:15">
       <c r="A8" s="51" t="s">
         <v>11</v>
       </c>
@@ -2671,10 +2750,10 @@
         <v>13</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F8" s="53"/>
       <c r="G8" s="27" t="s">
@@ -2687,7 +2766,7 @@
         <v>18</v>
       </c>
       <c r="J8" s="70" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K8" s="42" t="s">
         <v>17</v>
@@ -2695,8 +2774,14 @@
       <c r="L8" s="54" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" ht="33.75" customHeight="1" spans="1:12">
+      <c r="N8" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" ht="33.75" customHeight="1" spans="1:15">
       <c r="A9" s="51" t="s">
         <v>11</v>
       </c>
@@ -2704,13 +2789,13 @@
         <v>12</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F9" s="56"/>
       <c r="G9" s="27" t="s">
@@ -2726,13 +2811,19 @@
         <v>30</v>
       </c>
       <c r="K9" s="42" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L9" s="54" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" ht="33.75" customHeight="1" spans="1:12">
+      <c r="N9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" ht="33.75" customHeight="1" spans="1:15">
       <c r="A10" s="51" t="s">
         <v>11</v>
       </c>
@@ -2743,13 +2834,13 @@
         <v>13</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>16</v>
@@ -2761,7 +2852,7 @@
         <v>18</v>
       </c>
       <c r="J10" s="70" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K10" s="42" t="s">
         <v>20</v>
@@ -2769,8 +2860,14 @@
       <c r="L10" s="54" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" ht="29.25" customHeight="1" spans="1:12">
+      <c r="N10" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" ht="29.25" customHeight="1" spans="1:15">
       <c r="A11" s="51" t="s">
         <v>11</v>
       </c>
@@ -2778,16 +2875,16 @@
         <v>12</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G11" s="27" t="s">
         <v>16</v>
@@ -2799,7 +2896,7 @@
         <v>18</v>
       </c>
       <c r="J11" s="70" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K11" s="42" t="s">
         <v>17</v>
@@ -2807,8 +2904,14 @@
       <c r="L11" s="54" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" ht="33.75" customHeight="1" spans="1:12">
+      <c r="N11" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" ht="33.75" customHeight="1" spans="1:15">
       <c r="A12" s="51" t="s">
         <v>11</v>
       </c>
@@ -2819,13 +2922,13 @@
         <v>13</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G12" s="27" t="s">
         <v>16</v>
@@ -2837,7 +2940,7 @@
         <v>18</v>
       </c>
       <c r="J12" s="70" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="K12" s="42" t="s">
         <v>20</v>
@@ -2845,8 +2948,14 @@
       <c r="L12" s="54" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" ht="33.75" customHeight="1" spans="1:12">
+      <c r="N12" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" ht="33.75" customHeight="1" spans="1:15">
       <c r="A13" s="51" t="s">
         <v>11</v>
       </c>
@@ -2854,13 +2963,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="F13" s="56"/>
       <c r="G13" s="27" t="s">
@@ -2873,7 +2982,7 @@
         <v>18</v>
       </c>
       <c r="J13" s="70" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K13" s="42" t="s">
         <v>17</v>
@@ -2881,8 +2990,14 @@
       <c r="L13" s="54" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" ht="33.75" customHeight="1" spans="1:12">
+      <c r="N13" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" ht="33.75" customHeight="1" spans="1:15">
       <c r="A14" s="51" t="s">
         <v>11</v>
       </c>
@@ -2893,10 +3008,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F14" s="53"/>
       <c r="G14" s="27" t="s">
@@ -2909,7 +3024,7 @@
         <v>18</v>
       </c>
       <c r="J14" s="70" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K14" s="42" t="s">
         <v>20</v>
@@ -2917,8 +3032,14 @@
       <c r="L14" s="54" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" ht="33.75" customHeight="1" spans="1:12">
+      <c r="N14" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" ht="33.75" customHeight="1" spans="1:15">
       <c r="A15" s="51" t="s">
         <v>11</v>
       </c>
@@ -2926,13 +3047,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="F15" s="56"/>
       <c r="G15" s="27" t="s">
@@ -2945,7 +3066,7 @@
         <v>18</v>
       </c>
       <c r="J15" s="70" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="K15" s="42" t="s">
         <v>20</v>
@@ -2953,8 +3074,14 @@
       <c r="L15" s="54" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" ht="33.75" customHeight="1" spans="1:12">
+      <c r="N15" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" ht="33.75" customHeight="1" spans="1:15">
       <c r="A16" s="51" t="s">
         <v>11</v>
       </c>
@@ -2965,10 +3092,10 @@
         <v>13</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="F16" s="53"/>
       <c r="G16" s="27" t="s">
@@ -2981,7 +3108,7 @@
         <v>18</v>
       </c>
       <c r="J16" s="70" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="K16" s="42" t="s">
         <v>17</v>
@@ -2989,8 +3116,14 @@
       <c r="L16" s="54" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" ht="33.75" customHeight="1" spans="1:12">
+      <c r="N16" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="O16" s="73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" ht="33.75" customHeight="1" spans="1:15">
       <c r="A17" s="51" t="s">
         <v>11</v>
       </c>
@@ -2998,13 +3131,13 @@
         <v>12</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F17" s="56"/>
       <c r="G17" s="27" t="s">
@@ -3017,7 +3150,7 @@
         <v>18</v>
       </c>
       <c r="J17" s="70" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K17" s="42" t="s">
         <v>17</v>
@@ -3025,8 +3158,14 @@
       <c r="L17" s="54" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" ht="33.75" customHeight="1" spans="1:12">
+      <c r="N17" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" ht="33.75" customHeight="1" spans="1:15">
       <c r="A18" s="51" t="s">
         <v>11</v>
       </c>
@@ -3037,10 +3176,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="F18" s="53"/>
       <c r="G18" s="27" t="s">
@@ -3053,13 +3192,19 @@
         <v>18</v>
       </c>
       <c r="J18" s="70" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="K18" s="42" t="s">
         <v>20</v>
       </c>
       <c r="L18" s="54" t="s">
         <v>18</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19" ht="33.75" customHeight="1" spans="1:12">
@@ -3070,13 +3215,13 @@
         <v>12</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F19" s="56"/>
       <c r="G19" s="27" t="s">
@@ -3089,7 +3234,7 @@
         <v>18</v>
       </c>
       <c r="J19" s="70" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="K19" s="42" t="s">
         <v>17</v>
@@ -3109,10 +3254,10 @@
         <v>13</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="F20" s="53"/>
       <c r="G20" s="27" t="s">
@@ -3125,7 +3270,7 @@
         <v>18</v>
       </c>
       <c r="J20" s="70" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K20" s="42" t="s">
         <v>20</v>
@@ -3142,13 +3287,13 @@
         <v>12</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="F21" s="56"/>
       <c r="G21" s="27" t="s">
@@ -3161,7 +3306,7 @@
         <v>18</v>
       </c>
       <c r="J21" s="70" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K21" s="42" t="s">
         <v>17</v>
@@ -3181,10 +3326,10 @@
         <v>13</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="F22" s="53"/>
       <c r="G22" s="27" t="s">
@@ -3197,7 +3342,7 @@
         <v>18</v>
       </c>
       <c r="J22" s="70" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="K22" s="42" t="s">
         <v>17</v>
@@ -3214,13 +3359,13 @@
         <v>12</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F23" s="53"/>
       <c r="G23" s="27" t="s">
@@ -3233,7 +3378,7 @@
         <v>18</v>
       </c>
       <c r="J23" s="70" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="K23" s="42" t="s">
         <v>20</v>
@@ -3253,10 +3398,10 @@
         <v>13</v>
       </c>
       <c r="D24" s="57" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="E24" s="58" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="F24" s="59"/>
       <c r="G24" s="27" t="s">
@@ -3269,7 +3414,7 @@
         <v>18</v>
       </c>
       <c r="J24" s="70" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K24" s="54" t="s">
         <v>17</v>
@@ -3289,10 +3434,10 @@
         <v>13</v>
       </c>
       <c r="D25" s="62" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E25" s="63" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="F25" s="64"/>
       <c r="G25" s="27" t="s">
@@ -3305,7 +3450,7 @@
         <v>18</v>
       </c>
       <c r="J25" s="70" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K25" s="61" t="s">
         <v>20</v>
@@ -3322,13 +3467,13 @@
         <v>12</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E26" s="63" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="F26" s="64"/>
       <c r="G26" s="27" t="s">
@@ -3341,7 +3486,7 @@
         <v>18</v>
       </c>
       <c r="J26" s="70" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K26" s="61" t="s">
         <v>20</v>
@@ -3361,13 +3506,13 @@
         <v>13</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="G27" s="27" t="s">
         <v>16</v>
@@ -3379,7 +3524,7 @@
         <v>18</v>
       </c>
       <c r="J27" s="70" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K27" s="42" t="s">
         <v>20</v>
@@ -3396,10 +3541,10 @@
         <v>12</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="53"/>
@@ -3430,13 +3575,13 @@
         <v>12</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D29" s="66" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="F29" s="53"/>
       <c r="G29" s="27" t="s">
@@ -3448,7 +3593,7 @@
       <c r="I29" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="27" t="s">
+      <c r="J29" s="70" t="s">
         <v>80</v>
       </c>
       <c r="K29" s="42" t="s">
@@ -3469,11 +3614,11 @@
         <v>13</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E30" s="35"/>
       <c r="F30" s="38" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="G30" s="27" t="s">
         <v>16</v>
@@ -3484,8 +3629,8 @@
       <c r="I30" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="27" t="s">
-        <v>85</v>
+      <c r="J30" s="70" t="s">
+        <v>76</v>
       </c>
       <c r="K30" s="42" t="s">
         <v>20</v>
@@ -3510,7 +3655,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="A2:L3"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.75" customHeight="1"/>
@@ -3526,7 +3671,8 @@
     <col min="10" max="10" width="14.125" style="21" customWidth="1"/>
     <col min="11" max="11" width="12.25" style="21" customWidth="1"/>
     <col min="12" max="12" width="12" style="21" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="21"/>
+    <col min="13" max="13" width="14.125" style="21" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -3569,7 +3715,7 @@
     </row>
     <row r="2" ht="33.75" customHeight="1" spans="1:12">
       <c r="A2" s="51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>12</v>
@@ -3581,11 +3727,11 @@
         <v>14</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F2" s="53"/>
       <c r="G2" s="27" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="H2" s="54" t="s">
         <v>17</v>
@@ -3594,7 +3740,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="K2" s="42" t="s">
         <v>20</v>
@@ -3605,23 +3751,23 @@
     </row>
     <row r="3" ht="31.5" customHeight="1" spans="1:12">
       <c r="A3" s="51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="F3" s="53"/>
       <c r="G3" s="51" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="H3" s="54" t="s">
         <v>20</v>
@@ -3630,7 +3776,7 @@
         <v>18</v>
       </c>
       <c r="J3" s="70" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="K3" s="42" t="s">
         <v>20</v>
@@ -3641,7 +3787,7 @@
     </row>
     <row r="4" ht="31.5" customHeight="1" spans="1:12">
       <c r="A4" s="51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>12</v>
@@ -3650,14 +3796,14 @@
         <v>13</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F4" s="53"/>
       <c r="G4" s="51" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="H4" s="54" t="s">
         <v>17</v>
@@ -3666,10 +3812,10 @@
         <v>18</v>
       </c>
       <c r="J4" s="70" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="K4" s="42" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L4" s="54" t="s">
         <v>18</v>
@@ -3677,23 +3823,23 @@
     </row>
     <row r="5" ht="33.75" customHeight="1" spans="1:12">
       <c r="A5" s="51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F5" s="53"/>
       <c r="G5" s="51" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="H5" s="54" t="s">
         <v>20</v>
@@ -3702,10 +3848,10 @@
         <v>18</v>
       </c>
       <c r="J5" s="70" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="K5" s="42" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L5" s="54" t="s">
         <v>18</v>
@@ -3713,7 +3859,7 @@
     </row>
     <row r="6" ht="33.75" customHeight="1" spans="1:12">
       <c r="A6" s="51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>12</v>
@@ -3722,14 +3868,14 @@
         <v>13</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="F6" s="53"/>
       <c r="G6" s="51" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="H6" s="54" t="s">
         <v>17</v>
@@ -3738,7 +3884,7 @@
         <v>18</v>
       </c>
       <c r="J6" s="70" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="K6" s="42" t="s">
         <v>20</v>
@@ -3749,25 +3895,25 @@
     </row>
     <row r="7" ht="31.5" customHeight="1" spans="1:12">
       <c r="A7" s="51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="51" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>88</v>
       </c>
       <c r="H7" s="54" t="s">
         <v>20</v>
@@ -3776,7 +3922,7 @@
         <v>18</v>
       </c>
       <c r="J7" s="70" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="K7" s="42" t="s">
         <v>20</v>
@@ -3787,7 +3933,7 @@
     </row>
     <row r="8" ht="31.5" customHeight="1" spans="1:12">
       <c r="A8" s="51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>12</v>
@@ -3796,14 +3942,14 @@
         <v>13</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F8" s="53"/>
       <c r="G8" s="51" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="H8" s="54" t="s">
         <v>17</v>
@@ -3812,7 +3958,7 @@
         <v>18</v>
       </c>
       <c r="J8" s="70" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="K8" s="42" t="s">
         <v>17</v>
@@ -3823,23 +3969,23 @@
     </row>
     <row r="9" ht="33.75" customHeight="1" spans="1:12">
       <c r="A9" s="51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B9" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F9" s="56"/>
       <c r="G9" s="51" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="H9" s="54" t="s">
         <v>20</v>
@@ -3848,10 +3994,10 @@
         <v>18</v>
       </c>
       <c r="J9" s="70" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="K9" s="42" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L9" s="54" t="s">
         <v>18</v>
@@ -3859,7 +4005,7 @@
     </row>
     <row r="10" ht="33.75" customHeight="1" spans="1:12">
       <c r="A10" s="51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>12</v>
@@ -3868,16 +4014,16 @@
         <v>13</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G10" s="51" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="H10" s="54" t="s">
         <v>17</v>
@@ -3886,7 +4032,7 @@
         <v>18</v>
       </c>
       <c r="J10" s="70" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="K10" s="42" t="s">
         <v>20</v>
@@ -3897,25 +4043,25 @@
     </row>
     <row r="11" ht="29.25" customHeight="1" spans="1:12">
       <c r="A11" s="51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="51" t="s">
         <v>21</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="51" t="s">
-        <v>88</v>
       </c>
       <c r="H11" s="54" t="s">
         <v>20</v>
@@ -3924,7 +4070,7 @@
         <v>18</v>
       </c>
       <c r="J11" s="70" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="K11" s="42" t="s">
         <v>17</v>
@@ -3935,7 +4081,7 @@
     </row>
     <row r="12" ht="33.75" customHeight="1" spans="1:12">
       <c r="A12" s="51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>12</v>
@@ -3944,16 +4090,16 @@
         <v>13</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G12" s="51" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="H12" s="54" t="s">
         <v>17</v>
@@ -3962,7 +4108,7 @@
         <v>18</v>
       </c>
       <c r="J12" s="70" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="K12" s="42" t="s">
         <v>20</v>
@@ -3973,23 +4119,23 @@
     </row>
     <row r="13" ht="33.75" customHeight="1" spans="1:12">
       <c r="A13" s="51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="F13" s="56"/>
       <c r="G13" s="51" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="H13" s="54" t="s">
         <v>20</v>
@@ -3998,7 +4144,7 @@
         <v>18</v>
       </c>
       <c r="J13" s="70" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K13" s="42" t="s">
         <v>17</v>
@@ -4009,7 +4155,7 @@
     </row>
     <row r="14" ht="33.75" customHeight="1" spans="1:12">
       <c r="A14" s="51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>12</v>
@@ -4018,14 +4164,14 @@
         <v>13</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F14" s="53"/>
       <c r="G14" s="51" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="H14" s="54" t="s">
         <v>17</v>
@@ -4034,7 +4180,7 @@
         <v>18</v>
       </c>
       <c r="J14" s="70" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K14" s="42" t="s">
         <v>20</v>
@@ -4045,23 +4191,23 @@
     </row>
     <row r="15" ht="33.75" customHeight="1" spans="1:12">
       <c r="A15" s="51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="F15" s="56"/>
       <c r="G15" s="51" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="H15" s="54" t="s">
         <v>20</v>
@@ -4070,7 +4216,7 @@
         <v>18</v>
       </c>
       <c r="J15" s="70" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="K15" s="42" t="s">
         <v>20</v>
@@ -4081,7 +4227,7 @@
     </row>
     <row r="16" ht="33.75" customHeight="1" spans="1:12">
       <c r="A16" s="51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>12</v>
@@ -4090,14 +4236,14 @@
         <v>13</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="F16" s="53"/>
       <c r="G16" s="51" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="H16" s="54" t="s">
         <v>17</v>
@@ -4106,7 +4252,7 @@
         <v>18</v>
       </c>
       <c r="J16" s="70" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="K16" s="42" t="s">
         <v>17</v>
@@ -4117,23 +4263,23 @@
     </row>
     <row r="17" ht="33.75" customHeight="1" spans="1:12">
       <c r="A17" s="51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B17" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F17" s="56"/>
       <c r="G17" s="51" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="H17" s="54" t="s">
         <v>20</v>
@@ -4142,7 +4288,7 @@
         <v>18</v>
       </c>
       <c r="J17" s="70" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K17" s="42" t="s">
         <v>17</v>
@@ -4153,7 +4299,7 @@
     </row>
     <row r="18" ht="33.75" customHeight="1" spans="1:12">
       <c r="A18" s="51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>12</v>
@@ -4162,14 +4308,14 @@
         <v>13</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="F18" s="53"/>
       <c r="G18" s="51" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="H18" s="54" t="s">
         <v>17</v>
@@ -4178,7 +4324,7 @@
         <v>18</v>
       </c>
       <c r="J18" s="70" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="K18" s="42" t="s">
         <v>20</v>
@@ -4189,23 +4335,23 @@
     </row>
     <row r="19" ht="33.75" customHeight="1" spans="1:12">
       <c r="A19" s="51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B19" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F19" s="56"/>
       <c r="G19" s="51" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="H19" s="54" t="s">
         <v>20</v>
@@ -4214,7 +4360,7 @@
         <v>18</v>
       </c>
       <c r="J19" s="70" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="K19" s="42" t="s">
         <v>17</v>
@@ -4225,7 +4371,7 @@
     </row>
     <row r="20" ht="33.75" customHeight="1" spans="1:12">
       <c r="A20" s="51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>12</v>
@@ -4234,14 +4380,14 @@
         <v>13</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="F20" s="53"/>
       <c r="G20" s="51" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="H20" s="54" t="s">
         <v>17</v>
@@ -4250,7 +4396,7 @@
         <v>18</v>
       </c>
       <c r="J20" s="70" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K20" s="42" t="s">
         <v>20</v>
@@ -4261,23 +4407,23 @@
     </row>
     <row r="21" ht="33.75" customHeight="1" spans="1:12">
       <c r="A21" s="51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B21" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="F21" s="56"/>
       <c r="G21" s="51" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="H21" s="54" t="s">
         <v>20</v>
@@ -4286,7 +4432,7 @@
         <v>18</v>
       </c>
       <c r="J21" s="70" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K21" s="42" t="s">
         <v>17</v>
@@ -4297,7 +4443,7 @@
     </row>
     <row r="22" ht="31.5" customHeight="1" spans="1:12">
       <c r="A22" s="51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>12</v>
@@ -4306,14 +4452,14 @@
         <v>13</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="F22" s="53"/>
       <c r="G22" s="51" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="H22" s="54" t="s">
         <v>17</v>
@@ -4322,7 +4468,7 @@
         <v>18</v>
       </c>
       <c r="J22" s="70" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="K22" s="42" t="s">
         <v>17</v>
@@ -4333,23 +4479,23 @@
     </row>
     <row r="23" ht="31.5" customHeight="1" spans="1:12">
       <c r="A23" s="51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B23" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F23" s="53"/>
       <c r="G23" s="51" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="H23" s="54" t="s">
         <v>20</v>
@@ -4358,7 +4504,7 @@
         <v>18</v>
       </c>
       <c r="J23" s="70" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="K23" s="42" t="s">
         <v>20</v>
@@ -4369,7 +4515,7 @@
     </row>
     <row r="24" ht="31.5" customHeight="1" spans="1:12">
       <c r="A24" s="51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>12</v>
@@ -4378,14 +4524,14 @@
         <v>13</v>
       </c>
       <c r="D24" s="57" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="E24" s="58" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="F24" s="59"/>
       <c r="G24" s="51" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="H24" s="54" t="s">
         <v>17</v>
@@ -4394,7 +4540,7 @@
         <v>18</v>
       </c>
       <c r="J24" s="70" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K24" s="54" t="s">
         <v>17</v>
@@ -4414,10 +4560,10 @@
         <v>13</v>
       </c>
       <c r="D25" s="62" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E25" s="63" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="F25" s="64"/>
       <c r="G25" s="27" t="s">
@@ -4430,7 +4576,7 @@
         <v>18</v>
       </c>
       <c r="J25" s="70" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K25" s="61" t="s">
         <v>20</v>
@@ -4447,13 +4593,13 @@
         <v>12</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E26" s="63" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="F26" s="64"/>
       <c r="G26" s="27" t="s">
@@ -4466,7 +4612,7 @@
         <v>18</v>
       </c>
       <c r="J26" s="70" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K26" s="61" t="s">
         <v>20</v>
@@ -4477,7 +4623,7 @@
     </row>
     <row r="27" ht="45" customHeight="1" spans="1:12">
       <c r="A27" s="51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B27" s="32" t="s">
         <v>12</v>
@@ -4486,16 +4632,16 @@
         <v>13</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="G27" s="51" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="H27" s="54" t="s">
         <v>17</v>
@@ -4504,7 +4650,7 @@
         <v>18</v>
       </c>
       <c r="J27" s="70" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K27" s="42" t="s">
         <v>20</v>
@@ -4515,21 +4661,21 @@
     </row>
     <row r="28" ht="40.5" customHeight="1" spans="1:12">
       <c r="A28" s="51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B28" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="53"/>
       <c r="G28" s="51" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="H28" s="54" t="s">
         <v>20</v>
@@ -4549,23 +4695,23 @@
     </row>
     <row r="29" ht="40.5" customHeight="1" spans="1:12">
       <c r="A29" s="51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B29" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D29" s="66" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="F29" s="53"/>
       <c r="G29" s="51" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="H29" s="54" t="s">
         <v>20</v>
@@ -4573,7 +4719,7 @@
       <c r="I29" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="27" t="s">
+      <c r="J29" s="70" t="s">
         <v>80</v>
       </c>
       <c r="K29" s="42" t="s">
@@ -4585,7 +4731,7 @@
     </row>
     <row r="30" ht="33.75" customHeight="1" spans="1:12">
       <c r="A30" s="51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B30" s="32" t="s">
         <v>12</v>
@@ -4594,14 +4740,14 @@
         <v>13</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E30" s="35"/>
       <c r="F30" s="38" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="G30" s="51" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="H30" s="57" t="s">
         <v>17</v>
@@ -4609,8 +4755,8 @@
       <c r="I30" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="27" t="s">
-        <v>85</v>
+      <c r="J30" s="70" t="s">
+        <v>76</v>
       </c>
       <c r="K30" s="67" t="s">
         <v>20</v>
@@ -4629,13 +4775,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.75" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.25" style="21" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="21" customWidth="1"/>
@@ -4651,7 +4797,7 @@
     <row r="1" customHeight="1" spans="1:8">
       <c r="A1"/>
       <c r="B1" s="22" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -4662,476 +4808,613 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="23" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" ht="33.75" customHeight="1" spans="1:8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" ht="33.75" customHeight="1" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" ht="33.75" customHeight="1" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="M3" s="21" t="str">
+        <f>_xlfn.CONCAT(C3,D3)</f>
+        <v>Z07账户余额</v>
+      </c>
+      <c r="N3" s="21" t="str">
+        <f>_xlfn.CONCAT(E3,F3)</f>
+        <v>Z0701账户余额</v>
+      </c>
+    </row>
+    <row r="4" ht="33.75" customHeight="1" spans="1:14">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" ht="33.75" customHeight="1" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="M4" s="21" t="str">
+        <f t="shared" ref="M4:M19" si="0">_xlfn.CONCAT(C4,D4)</f>
+        <v>Z01应收资产</v>
+      </c>
+      <c r="N4" s="21" t="str">
+        <f t="shared" ref="N4:N19" si="1">_xlfn.CONCAT(E4,F4)</f>
+        <v>Z0101应收</v>
+      </c>
+    </row>
+    <row r="5" ht="33.75" customHeight="1" spans="1:14">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" ht="33.75" customHeight="1" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="M5" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Z07债权类资产</v>
+      </c>
+      <c r="N5" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>Z0701债权</v>
+      </c>
+    </row>
+    <row r="6" ht="33.75" customHeight="1" spans="1:14">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" ht="33.75" customHeight="1" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="M6" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Z02理财类资产</v>
+      </c>
+      <c r="N6" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>Z0201理财资产</v>
+      </c>
+    </row>
+    <row r="7" ht="33.75" customHeight="1" spans="1:14">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E7" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="F7" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>121</v>
-      </c>
       <c r="H7" s="35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" ht="33.75" customHeight="1" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="M7" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Z03处置类资产</v>
+      </c>
+      <c r="N7" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>Z0301固定资产</v>
+      </c>
+    </row>
+    <row r="8" ht="33.75" customHeight="1" spans="1:14">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" ht="33.75" customHeight="1" spans="1:8">
+        <v>154</v>
+      </c>
+      <c r="M8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Z04股权类资产</v>
+      </c>
+      <c r="N8" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>Z0401股权</v>
+      </c>
+    </row>
+    <row r="9" ht="33.75" customHeight="1" spans="1:14">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" ht="33.75" customHeight="1" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="M9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Z05固定资产</v>
+      </c>
+      <c r="N9" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>Z0501生产资料</v>
+      </c>
+    </row>
+    <row r="10" ht="33.75" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" ht="33.75" customHeight="1" spans="1:8">
+        <v>163</v>
+      </c>
+      <c r="M10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Z06无形资产</v>
+      </c>
+      <c r="N10" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>Z0601知识产权</v>
+      </c>
+    </row>
+    <row r="11" ht="33.75" customHeight="1" spans="1:14">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" ht="33.75" customHeight="1" spans="1:8">
+        <v>169</v>
+      </c>
+      <c r="M11" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>F01应付负债</v>
+      </c>
+      <c r="N11" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>F0101应付</v>
+      </c>
+    </row>
+    <row r="12" ht="33.75" customHeight="1" spans="1:14">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" ht="45.75" customHeight="1" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="M12" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>F02往来负债</v>
+      </c>
+      <c r="N12" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>F0201往来负债</v>
+      </c>
+    </row>
+    <row r="13" ht="45.75" customHeight="1" spans="1:14">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" ht="33.75" customHeight="1" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="M13" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>F03借款类负债</v>
+      </c>
+      <c r="N13" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>F0301借款</v>
+      </c>
+    </row>
+    <row r="14" ht="33.75" customHeight="1" spans="1:14">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" ht="33.75" customHeight="1" spans="1:8">
+        <v>183</v>
+      </c>
+      <c r="M14" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>F04信用卡</v>
+      </c>
+      <c r="N14" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>F0401信用卡</v>
+      </c>
+    </row>
+    <row r="15" ht="33.75" customHeight="1" spans="1:14">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" ht="54.75" customHeight="1" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="M15" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>P01经营支出</v>
+      </c>
+      <c r="N15" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>P0101经营支出</v>
+      </c>
+    </row>
+    <row r="16" ht="54.75" customHeight="1" spans="1:14">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" ht="33.75" customHeight="1" spans="1:8">
+        <v>192</v>
+      </c>
+      <c r="M16" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>P02信贷支出</v>
+      </c>
+      <c r="N16" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>P0201信贷支出</v>
+      </c>
+    </row>
+    <row r="17" ht="33.75" customHeight="1" spans="1:14">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" ht="33.75" customHeight="1" spans="1:8">
+        <v>197</v>
+      </c>
+      <c r="M17" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>P03消费支出</v>
+      </c>
+      <c r="N17" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>P0301 -
+ P0324 《居民消费支出分类表》24个中类分类；</v>
+      </c>
+    </row>
+    <row r="18" ht="33.75" customHeight="1" spans="1:14">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" ht="33.75" customHeight="1" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="M18" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>S01经营收入</v>
+      </c>
+      <c r="N18" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>S0101经营收入</v>
+      </c>
+    </row>
+    <row r="19" ht="33.75" customHeight="1" spans="1:14">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H19" s="42" t="s">
-        <v>193</v>
+        <v>206</v>
+      </c>
+      <c r="M19" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>S02营业外收入</v>
+      </c>
+      <c r="N19" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>S0201营业外收入</v>
       </c>
     </row>
     <row r="20" ht="33.75" customHeight="1" spans="1:8">
       <c r="A20"/>
       <c r="B20" s="22" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
@@ -5142,444 +5425,444 @@
     </row>
     <row r="21" ht="33.75" customHeight="1" spans="1:8">
       <c r="A21" s="23" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" ht="33.75" customHeight="1" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F22" s="44" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G22" s="45" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="H22" s="46" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" ht="31.5" customHeight="1" spans="1:8">
       <c r="A23" s="3" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" ht="31.5" customHeight="1" spans="1:8">
       <c r="A24" s="3" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" ht="31.5" customHeight="1" spans="1:8">
       <c r="A25" s="3" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" ht="31.5" customHeight="1" spans="1:8">
       <c r="A26" s="3" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E26" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="F26" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>121</v>
-      </c>
       <c r="H26" s="35" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" ht="31.5" customHeight="1" spans="1:8">
       <c r="A27" s="3" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" ht="31.5" customHeight="1" spans="1:8">
       <c r="A28" s="3" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H28" s="35" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" ht="31.5" customHeight="1" spans="1:8">
       <c r="A29" s="3" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H29" s="35" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" ht="31.5" customHeight="1" spans="1:8">
       <c r="A30" s="3" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H30" s="35" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" ht="31.5" customHeight="1" spans="1:8">
       <c r="A31" s="3" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" ht="31.5" customHeight="1" spans="1:8">
       <c r="A32" s="3" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" ht="31.5" customHeight="1" spans="1:8">
       <c r="A33" s="3" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" ht="31.5" customHeight="1" spans="1:8">
       <c r="A34" s="3" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H34" s="35" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" ht="31.5" customHeight="1" spans="1:8">
       <c r="A35" s="3" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H35" s="42" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" ht="31.5" customHeight="1" spans="1:8">
       <c r="A36" s="3" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H36" s="42" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" ht="32.25" customHeight="1" spans="1:8">
       <c r="A37" s="3" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H37" s="42" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" ht="32.25" customHeight="1" spans="1:8">
@@ -5999,7 +6282,7 @@
   <dimension ref="A2:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F12" sqref="F11:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -6015,22 +6298,22 @@
   <sheetData>
     <row r="2" ht="24.75" customHeight="1" spans="1:7">
       <c r="A2" s="12" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>2</v>
@@ -6038,68 +6321,68 @@
     </row>
     <row r="3" ht="40.5" spans="1:7">
       <c r="A3" s="13" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="28.5" customHeight="1" spans="1:7">
       <c r="A4" s="13" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" ht="30.75" customHeight="1" spans="1:7">
       <c r="A5" s="13" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>13</v>
@@ -6107,91 +6390,91 @@
     </row>
     <row r="6" ht="27" spans="1:7">
       <c r="A6" s="13" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:7">
       <c r="A7" s="13" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:7">
       <c r="A8" s="13" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:7">
       <c r="A9" s="13" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>13</v>
@@ -6199,45 +6482,45 @@
     </row>
     <row r="10" ht="27" customHeight="1" spans="1:7">
       <c r="A10" s="13" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="D10" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="F10" s="14" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="1:7">
       <c r="A11" s="13" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>13</v>
@@ -6245,22 +6528,22 @@
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:7">
       <c r="A12" s="13" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>13</v>
@@ -6268,45 +6551,45 @@
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:7">
       <c r="A13" s="13" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:7">
       <c r="A14" s="13" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>13</v>
@@ -6314,45 +6597,45 @@
     </row>
     <row r="15" ht="27" customHeight="1" spans="1:7">
       <c r="A15" s="13" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A16" s="13" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>13</v>
@@ -6360,22 +6643,22 @@
     </row>
     <row r="17" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A17" s="13" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>13</v>
@@ -6401,22 +6684,22 @@
     </row>
     <row r="20" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A20" s="12" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>2</v>
@@ -6424,22 +6707,22 @@
     </row>
     <row r="21" ht="43.5" customHeight="1" spans="1:7">
       <c r="A21" s="13" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="G21" s="15" t="s">
         <v>13</v>
@@ -6447,22 +6730,22 @@
     </row>
     <row r="22" ht="43.5" customHeight="1" spans="1:7">
       <c r="A22" s="13" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>13</v>
@@ -6597,7 +6880,7 @@
   <dimension ref="B1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6618,13 +6901,13 @@
     <row r="1" ht="19.5" customHeight="1"/>
     <row r="2" ht="21" customHeight="1" spans="2:12">
       <c r="B2" s="1" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -6640,10 +6923,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
@@ -6653,13 +6936,13 @@
     </row>
     <row r="4" ht="36" customHeight="1" spans="2:12">
       <c r="B4" s="3" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
@@ -6668,13 +6951,13 @@
     </row>
     <row r="5" ht="36" customHeight="1" spans="2:12">
       <c r="B5" s="3" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
@@ -6683,13 +6966,13 @@
     </row>
     <row r="6" ht="36" customHeight="1" spans="2:12">
       <c r="B6" s="3" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
@@ -6698,13 +6981,13 @@
     </row>
     <row r="7" ht="36" customHeight="1" spans="2:12">
       <c r="B7" s="3" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
@@ -6713,13 +6996,13 @@
     </row>
     <row r="8" ht="36" customHeight="1" spans="2:12">
       <c r="B8" s="3" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="7"/>
@@ -6728,13 +7011,13 @@
     </row>
     <row r="9" ht="36" customHeight="1" spans="2:7">
       <c r="B9" s="3" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="7"/>
@@ -6742,10 +7025,10 @@
     </row>
     <row r="10" ht="36" customHeight="1" spans="2:7">
       <c r="B10" s="3" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="5"/>
